--- a/datf_core/test/sqlbulk/bulk_sql_using_business_rules_2.xlsx
+++ b/datf_core/test/sqlbulk/bulk_sql_using_business_rules_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil.gupta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\sqlbulk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE062A76-5634-4259-BC09-26B332CB32EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FE98D8-E16F-41F2-852E-166496220ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>id, BIRTHDATE, HEALTHCARE_EXPENSES, HEALTHCARE_COVERAGE</t>
   </si>
   <si>
-    <t>this table consists of patient data admittied in clinics, can you find how many patients over age of 25 have their expenses as nil</t>
+    <t>this table consists of patient data admittied in clinics, can you find how many patients over age of 25 have their healthcar expenses as zero</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="112.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +445,7 @@
     <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="112.140625" style="2"/>
   </cols>
   <sheetData>
@@ -479,7 +479,7 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -496,7 +496,7 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/datf_core/test/sqlbulk/bulk_sql_using_business_rules_2.xlsx
+++ b/datf_core/test/sqlbulk/bulk_sql_using_business_rules_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\sqlbulk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FE98D8-E16F-41F2-852E-166496220ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D628A4D1-831C-47F2-AF20-320373BE16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <t>id, BIRTHDATE, HEALTHCARE_EXPENSES, HEALTHCARE_COVERAGE</t>
   </si>
   <si>
-    <t>this table consists of patient data admittied in clinics, can you find how many patients over age of 25 have their healthcar expenses as zero</t>
+    <t>this table consists of patient data admittied in clinics, can you find how many patients over age of 25 have their healthcare expenses less than 1000</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="112.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
